--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H2">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I2">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J2">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N2">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O2">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P2">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q2">
-        <v>0.1099172021884444</v>
+        <v>0.7632490188910001</v>
       </c>
       <c r="R2">
-        <v>0.989254819696</v>
+        <v>6.869241170019</v>
       </c>
       <c r="S2">
-        <v>2.08283005410191E-05</v>
+        <v>8.757124643497986E-05</v>
       </c>
       <c r="T2">
-        <v>2.097434037911447E-05</v>
+        <v>8.817610056766354E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H3">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I3">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J3">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P3">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q3">
-        <v>0.01943096463733333</v>
+        <v>0.045915816328</v>
       </c>
       <c r="R3">
-        <v>0.174878681736</v>
+        <v>0.413242346952</v>
       </c>
       <c r="S3">
-        <v>3.681989381192968E-06</v>
+        <v>5.268143380996324E-06</v>
       </c>
       <c r="T3">
-        <v>3.707806040216075E-06</v>
+        <v>5.304530419268432E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H4">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I4">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J4">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N4">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O4">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P4">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q4">
-        <v>50.48542613344634</v>
+        <v>186.1150811180493</v>
       </c>
       <c r="R4">
-        <v>454.3688352010171</v>
+        <v>1675.035730062444</v>
       </c>
       <c r="S4">
-        <v>0.009566524688702338</v>
+        <v>0.02135388219369928</v>
       </c>
       <c r="T4">
-        <v>0.009633601391092048</v>
+        <v>0.02150137334427105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H5">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I5">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J5">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N5">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O5">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P5">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q5">
-        <v>0.140351955194</v>
+        <v>1.914226942997</v>
       </c>
       <c r="R5">
-        <v>0.8421117311640002</v>
+        <v>11.485361657982</v>
       </c>
       <c r="S5">
-        <v>2.65954067798098E-05</v>
+        <v>0.0002196285028983548</v>
       </c>
       <c r="T5">
-        <v>1.785458886326869E-05</v>
+        <v>0.0001474303171986909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H6">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I6">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J6">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N6">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O6">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P6">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q6">
-        <v>54.99176237808978</v>
+        <v>106.1354200428803</v>
       </c>
       <c r="R6">
-        <v>494.925861402808</v>
+        <v>955.2187803859229</v>
       </c>
       <c r="S6">
-        <v>0.01042043402931134</v>
+        <v>0.01217742937627348</v>
       </c>
       <c r="T6">
-        <v>0.01049349800760026</v>
+        <v>0.01226153881611309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
         <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J7">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N7">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O7">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P7">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q7">
-        <v>0.8795018662559998</v>
+        <v>2.584457567037</v>
       </c>
       <c r="R7">
-        <v>7.915516796303999</v>
+        <v>23.260118103333</v>
       </c>
       <c r="S7">
-        <v>0.0001666575279578302</v>
+        <v>0.0002965272996126407</v>
       </c>
       <c r="T7">
-        <v>0.0001678260648892233</v>
+        <v>0.0002985754120916312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H8">
         <v>22.398687</v>
       </c>
       <c r="I8">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J8">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P8">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q8">
         <v>0.155476752696</v>
@@ -948,10 +948,10 @@
         <v>1.399290774264</v>
       </c>
       <c r="S8">
-        <v>2.946141702862986E-05</v>
+        <v>1.783859879051642E-05</v>
       </c>
       <c r="T8">
-        <v>2.966798887852457E-05</v>
+        <v>1.796180989734634E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H9">
         <v>22.398687</v>
       </c>
       <c r="I9">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J9">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N9">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O9">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P9">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q9">
-        <v>403.958849197887</v>
+        <v>630.2091687378121</v>
       </c>
       <c r="R9">
-        <v>3635.629642780983</v>
+        <v>5671.882518640308</v>
       </c>
       <c r="S9">
-        <v>0.07654649272161279</v>
+        <v>0.07230694184358226</v>
       </c>
       <c r="T9">
-        <v>0.07708320657312538</v>
+        <v>0.07280636550575749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H10">
         <v>22.398687</v>
       </c>
       <c r="I10">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J10">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N10">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O10">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P10">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q10">
-        <v>1.123025368806</v>
+        <v>6.481814172579001</v>
       </c>
       <c r="R10">
-        <v>6.738152212836001</v>
+        <v>38.89088503547401</v>
       </c>
       <c r="S10">
-        <v>0.0002128029956273691</v>
+        <v>0.0007436898472236661</v>
       </c>
       <c r="T10">
-        <v>0.0001428633909327185</v>
+        <v>0.0004992176726914818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H11">
         <v>22.398687</v>
       </c>
       <c r="I11">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J11">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N11">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O11">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P11">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q11">
-        <v>440.0162729516879</v>
+        <v>359.387935878429</v>
       </c>
       <c r="R11">
-        <v>3960.146456565192</v>
+        <v>3234.491422905861</v>
       </c>
       <c r="S11">
-        <v>0.08337904343912006</v>
+        <v>0.04123431372934813</v>
       </c>
       <c r="T11">
-        <v>0.08396366444458399</v>
+        <v>0.04151911891464475</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H12">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I12">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J12">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N12">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O12">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P12">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q12">
-        <v>3.425523050929778</v>
+        <v>10.94564401314667</v>
       </c>
       <c r="R12">
-        <v>30.829707458368</v>
+        <v>98.51079611831999</v>
       </c>
       <c r="S12">
-        <v>0.0006491051645640854</v>
+        <v>0.001255846605158513</v>
       </c>
       <c r="T12">
-        <v>0.0006536564342633639</v>
+        <v>0.001264520730971156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H13">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I13">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J13">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.062472</v>
       </c>
       <c r="O13">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P13">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q13">
-        <v>0.6055577829653334</v>
+        <v>0.6584720945066665</v>
       </c>
       <c r="R13">
-        <v>5.450020046688</v>
+        <v>5.92624885056</v>
       </c>
       <c r="S13">
-        <v>0.0001147476395635655</v>
+        <v>7.554968382715413E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001155522048074118</v>
+        <v>7.607150509093767E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H14">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I14">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J14">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N14">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O14">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P14">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q14">
-        <v>1573.356922419138</v>
+        <v>2669.049514608035</v>
       </c>
       <c r="R14">
-        <v>14160.21230177224</v>
+        <v>24021.44563147232</v>
       </c>
       <c r="S14">
-        <v>0.2981366900356185</v>
+        <v>0.3062329423371103</v>
       </c>
       <c r="T14">
-        <v>0.3002271070553529</v>
+        <v>0.3083480916387023</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H15">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I15">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J15">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N15">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O15">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P15">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q15">
-        <v>4.374009237752001</v>
+        <v>27.45165229149333</v>
       </c>
       <c r="R15">
-        <v>26.24405542651201</v>
+        <v>164.70991374896</v>
       </c>
       <c r="S15">
-        <v>0.0008288345878464344</v>
+        <v>0.003149660659058188</v>
       </c>
       <c r="T15">
-        <v>0.0005564306996383032</v>
+        <v>0.002114276898969222</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H16">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I16">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J16">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N16">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O16">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P16">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q16">
-        <v>1713.794982831207</v>
+        <v>1522.072739331049</v>
       </c>
       <c r="R16">
-        <v>15424.15484548087</v>
+        <v>13698.65465397944</v>
       </c>
       <c r="S16">
-        <v>0.3247484129636235</v>
+        <v>0.1746347570044624</v>
       </c>
       <c r="T16">
-        <v>0.3270254209008545</v>
+        <v>0.1758409583409112</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H17">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I17">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J17">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N17">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O17">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P17">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q17">
-        <v>0.1073484153733333</v>
+        <v>0.3184339331425</v>
       </c>
       <c r="R17">
-        <v>0.64409049224</v>
+        <v>1.910603598855</v>
       </c>
       <c r="S17">
-        <v>2.034153902648188E-05</v>
+        <v>3.65354631873613E-05</v>
       </c>
       <c r="T17">
-        <v>1.365611058973117E-05</v>
+        <v>2.452520895799505E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H18">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I18">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J18">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.062472</v>
       </c>
       <c r="O18">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P18">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q18">
-        <v>0.01897685914</v>
+        <v>0.01915646614</v>
       </c>
       <c r="R18">
-        <v>0.11386115484</v>
+        <v>0.11493879684</v>
       </c>
       <c r="S18">
-        <v>3.595940559102571E-06</v>
+        <v>2.197913886095489E-06</v>
       </c>
       <c r="T18">
-        <v>2.414102585122713E-06</v>
+        <v>1.475396577066467E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H19">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I19">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J19">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N19">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O19">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P19">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q19">
-        <v>49.30557171189251</v>
+        <v>77.64878280966333</v>
       </c>
       <c r="R19">
-        <v>295.833430271355</v>
+        <v>465.89269685798</v>
       </c>
       <c r="S19">
-        <v>0.009342953109390824</v>
+        <v>0.008909019895867483</v>
       </c>
       <c r="T19">
-        <v>0.00627230814396154</v>
+        <v>0.005980369632556604</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H20">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I20">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J20">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N20">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O20">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P20">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q20">
-        <v>0.137071902165</v>
+        <v>0.7986316382974999</v>
       </c>
       <c r="R20">
-        <v>0.5482876086600001</v>
+        <v>3.19452655319</v>
       </c>
       <c r="S20">
-        <v>2.597386684867721E-05</v>
+        <v>9.163086525776438E-05</v>
       </c>
       <c r="T20">
-        <v>1.162488238694608E-05</v>
+        <v>4.100611518045943E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H21">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I21">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J21">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N21">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O21">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P21">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q21">
-        <v>53.70659398475334</v>
+        <v>44.28059311375583</v>
       </c>
       <c r="R21">
-        <v>322.23956390852</v>
+        <v>265.683558682535</v>
       </c>
       <c r="S21">
-        <v>0.01017690641935327</v>
+        <v>0.005080526323487565</v>
       </c>
       <c r="T21">
-        <v>0.006832175251985823</v>
+        <v>0.00341041166116186</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H22">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I22">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J22">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N22">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O22">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P22">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q22">
-        <v>0.963129609312</v>
+        <v>7.940336744086665</v>
       </c>
       <c r="R22">
-        <v>8.668166483808001</v>
+        <v>71.46303069678</v>
       </c>
       <c r="S22">
-        <v>0.0001825042173863991</v>
+        <v>0.0009110331865260369</v>
       </c>
       <c r="T22">
-        <v>0.0001837838650612701</v>
+        <v>0.0009173256878928114</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H23">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I23">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J23">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.062472</v>
       </c>
       <c r="O23">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P23">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q23">
-        <v>0.170260314192</v>
+        <v>0.4776777100266666</v>
       </c>
       <c r="R23">
-        <v>1.532342827728</v>
+        <v>4.299099390239999</v>
       </c>
       <c r="S23">
-        <v>3.226276618758524E-05</v>
+        <v>5.480627085773687E-05</v>
       </c>
       <c r="T23">
-        <v>3.248897999419248E-05</v>
+        <v>5.518481747862911E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H24">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I24">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J24">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N24">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O24">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P24">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q24">
-        <v>442.3694178868741</v>
+        <v>1936.217906152809</v>
       </c>
       <c r="R24">
-        <v>3981.324760981867</v>
+        <v>17425.96115537528</v>
       </c>
       <c r="S24">
-        <v>0.08382494279746258</v>
+        <v>0.2221516323177126</v>
       </c>
       <c r="T24">
-        <v>0.08441269027356538</v>
+        <v>0.2236860324588544</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H25">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I25">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J25">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N25">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O25">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P25">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q25">
-        <v>1.229808629412</v>
+        <v>19.91434794647333</v>
       </c>
       <c r="R25">
-        <v>7.378851776472001</v>
+        <v>119.48608767884</v>
       </c>
       <c r="S25">
-        <v>0.0002330374430147641</v>
+        <v>0.00228486932632612</v>
       </c>
       <c r="T25">
-        <v>0.000156447606506802</v>
+        <v>0.001533767271061895</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H26">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I26">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J26">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N26">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O26">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P26">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q26">
-        <v>481.8553744097761</v>
+        <v>1104.162540346362</v>
       </c>
       <c r="R26">
-        <v>4336.698369687984</v>
+        <v>9937.462863117258</v>
       </c>
       <c r="S26">
-        <v>0.09130716899349177</v>
+        <v>0.1266859013660304</v>
       </c>
       <c r="T26">
-        <v>0.09194737889206198</v>
+        <v>0.127560920211981</v>
       </c>
     </row>
   </sheetData>
